--- a/docs/StructureDefinition-MyPatient.xlsx
+++ b/docs/StructureDefinition-MyPatient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-29T20:38:23+02:00</t>
+    <t>2025-05-05T10:23:37+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
